--- a/data/xvariables-final.xlsx
+++ b/data/xvariables-final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="460" windowWidth="15680" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="xvariables" sheetId="1" r:id="rId1"/>
@@ -9299,8 +9299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1738" sqref="B1738"/>
+    <sheetView tabSelected="1" topLeftCell="A1539" workbookViewId="0">
+      <selection activeCell="B1561" sqref="B1561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24549,7 +24549,7 @@
         <v>1372</v>
       </c>
       <c r="B1383" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
@@ -26189,7 +26189,7 @@
         <v>1550</v>
       </c>
       <c r="B1561" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.2">
@@ -29438,7 +29438,7 @@
         <v>1936</v>
       </c>
       <c r="B1948" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
@@ -29817,7 +29817,7 @@
         <v>1977</v>
       </c>
       <c r="B1989" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1990" spans="1:9" x14ac:dyDescent="0.2">
@@ -30391,7 +30391,7 @@
         <v>2039</v>
       </c>
       <c r="B2051" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="2052" spans="1:9" x14ac:dyDescent="0.2">
@@ -30911,7 +30911,7 @@
         <v>2089</v>
       </c>
       <c r="B2101" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="2102" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/xvariables-final.xlsx
+++ b/data/xvariables-final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="xvariables" sheetId="1" r:id="rId1"/>
@@ -9299,8 +9299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1539" workbookViewId="0">
-      <selection activeCell="B1561" sqref="B1561"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9371,6 +9371,9 @@
         <v>2712</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
